--- a/source/input/configuration/default-ss-ml.xlsx
+++ b/source/input/configuration/default-ss-ml.xlsx
@@ -22,27 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
-    <t>th0_Tx_deg</t>
-  </si>
-  <si>
-    <t>ph0_Tx_deg</t>
-  </si>
-  <si>
-    <t>RMSH_cm</t>
-  </si>
-  <si>
-    <t>VSM5_cm3cm3</t>
-  </si>
-  <si>
-    <t>VSM10_cm3cm3</t>
-  </si>
-  <si>
-    <t>VSM40_cm3cm3</t>
-  </si>
-  <si>
-    <t>VSM20_cm3cm3</t>
-  </si>
-  <si>
     <t>layer_depth (m)</t>
   </si>
   <si>
@@ -62,6 +41,27 @@
   </si>
   <si>
     <t>zB (m)</t>
+  </si>
+  <si>
+    <t>Tx_th (deg)</t>
+  </si>
+  <si>
+    <t>Tx_ph (deg)</t>
+  </si>
+  <si>
+    <t>RMSH (cm)</t>
+  </si>
+  <si>
+    <t>VSM_5 (cm3/cm3)</t>
+  </si>
+  <si>
+    <t>VSM_10 (cm3/cm3)</t>
+  </si>
+  <si>
+    <t>VSM_20 (cm3/cm3)</t>
+  </si>
+  <si>
+    <t>VSM_40 (cm3/cm3)</t>
   </si>
 </sst>
 </file>
@@ -385,41 +385,41 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -544,25 +544,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
